--- a/Modulo5/src/out/info_estados/Washington.xlsx
+++ b/Modulo5/src/out/info_estados/Washington.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="65">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>W</t>
@@ -638,14 +644,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>53001</v>
@@ -682,14 +688,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <v>53001</v>
@@ -726,14 +732,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>930</v>
       </c>
       <c r="M4">
         <v>53001</v>
@@ -770,14 +776,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="M5">
         <v>53001</v>
@@ -814,14 +820,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="M6">
         <v>53001</v>
@@ -858,14 +864,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="M7">
         <v>53003</v>
@@ -902,14 +908,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M8">
         <v>53003</v>
@@ -946,14 +952,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>2271</v>
       </c>
       <c r="M9">
         <v>53003</v>
@@ -990,14 +996,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="M10">
         <v>53003</v>
@@ -1034,14 +1040,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="M11">
         <v>53003</v>
@@ -1078,14 +1084,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>386</v>
       </c>
       <c r="M12">
         <v>53005</v>
@@ -1122,14 +1128,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M13">
         <v>53005</v>
@@ -1166,14 +1172,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>14944</v>
       </c>
       <c r="M14">
         <v>53005</v>
@@ -1210,14 +1216,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>1529</v>
       </c>
       <c r="M15">
         <v>53005</v>
@@ -1254,14 +1260,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>2438</v>
       </c>
       <c r="M16">
         <v>53005</v>
@@ -1298,14 +1304,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="M17">
         <v>53007</v>
@@ -1342,14 +1348,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>62</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="M18">
         <v>53007</v>
@@ -1386,14 +1392,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>5718</v>
       </c>
       <c r="M19">
         <v>53007</v>
@@ -1430,14 +1436,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>63</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>652</v>
       </c>
       <c r="M20">
         <v>53007</v>
@@ -1474,14 +1480,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>63</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>636</v>
       </c>
       <c r="M21">
         <v>53007</v>
@@ -1518,14 +1524,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>62</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="M22">
         <v>53009</v>
@@ -1562,14 +1568,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="M23">
         <v>53009</v>
@@ -1606,14 +1612,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>6716</v>
       </c>
       <c r="M24">
         <v>53009</v>
@@ -1650,14 +1656,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>63</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>708</v>
       </c>
       <c r="M25">
         <v>53009</v>
@@ -1694,14 +1700,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>63</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>799</v>
       </c>
       <c r="M26">
         <v>53009</v>
@@ -1738,14 +1744,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>1081</v>
       </c>
       <c r="M27">
         <v>53011</v>
@@ -1782,14 +1788,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="M28">
         <v>53011</v>
@@ -1826,14 +1832,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>32948</v>
       </c>
       <c r="M29">
         <v>53011</v>
@@ -1870,14 +1876,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>63</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>4163</v>
       </c>
       <c r="M30">
         <v>53011</v>
@@ -1914,14 +1920,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>63</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>4530</v>
       </c>
       <c r="M31">
         <v>53011</v>
@@ -1958,14 +1964,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>62</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M32">
         <v>53013</v>
@@ -2002,11 +2008,11 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>62</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L33">
         <v>4</v>
@@ -2046,14 +2052,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>63</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>652</v>
       </c>
       <c r="M34">
         <v>53013</v>
@@ -2090,14 +2096,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>63</v>
       </c>
       <c r="K35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M35">
         <v>53013</v>
@@ -2134,14 +2140,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>63</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M36">
         <v>53013</v>
@@ -2178,14 +2184,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>62</v>
       </c>
       <c r="K37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="M37">
         <v>53015</v>
@@ -2222,14 +2228,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>62</v>
       </c>
       <c r="K38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="M38">
         <v>53015</v>
@@ -2266,14 +2272,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>63</v>
       </c>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>8728</v>
       </c>
       <c r="M39">
         <v>53015</v>
@@ -2310,14 +2316,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>63</v>
       </c>
       <c r="K40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>778</v>
       </c>
       <c r="M40">
         <v>53015</v>
@@ -2354,14 +2360,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>63</v>
       </c>
       <c r="K41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>992</v>
       </c>
       <c r="M41">
         <v>53015</v>
@@ -2398,14 +2404,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>62</v>
       </c>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="M42">
         <v>53017</v>
@@ -2442,14 +2448,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>62</v>
       </c>
       <c r="K43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M43">
         <v>53017</v>
@@ -2486,14 +2492,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>63</v>
       </c>
       <c r="K44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3048</v>
       </c>
       <c r="M44">
         <v>53017</v>
@@ -2530,14 +2536,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>63</v>
       </c>
       <c r="K45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="M45">
         <v>53017</v>
@@ -2574,14 +2580,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>63</v>
       </c>
       <c r="K46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="M46">
         <v>53017</v>
@@ -2618,14 +2624,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>62</v>
       </c>
       <c r="K47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M47">
         <v>53019</v>
@@ -2662,14 +2668,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>62</v>
       </c>
       <c r="K48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48">
         <v>53019</v>
@@ -2706,14 +2712,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>63</v>
       </c>
       <c r="K49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="M49">
         <v>53019</v>
@@ -2750,14 +2756,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>63</v>
       </c>
       <c r="K50" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50">
         <v>62</v>
-      </c>
-      <c r="L50">
-        <v>4</v>
       </c>
       <c r="M50">
         <v>53019</v>
@@ -2794,14 +2800,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>63</v>
       </c>
       <c r="K51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="M51">
         <v>53019</v>
@@ -2838,14 +2844,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>62</v>
       </c>
       <c r="K52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M52">
         <v>53021</v>
@@ -2882,14 +2888,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>62</v>
       </c>
       <c r="K53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M53">
         <v>53021</v>
@@ -2926,14 +2932,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>63</v>
       </c>
       <c r="K54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>4278</v>
       </c>
       <c r="M54">
         <v>53021</v>
@@ -2970,14 +2976,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>63</v>
       </c>
       <c r="K55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="M55">
         <v>53021</v>
@@ -3014,14 +3020,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>63</v>
       </c>
       <c r="K56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>894</v>
       </c>
       <c r="M56">
         <v>53021</v>
@@ -3058,11 +3064,11 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>62</v>
       </c>
       <c r="K57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L57">
         <v>4</v>
@@ -3102,14 +3108,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58">
         <v>3</v>
-      </c>
-      <c r="K58" t="s">
-        <v>62</v>
-      </c>
-      <c r="L58">
-        <v>4</v>
       </c>
       <c r="M58">
         <v>53023</v>
@@ -3146,14 +3152,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>63</v>
       </c>
       <c r="K59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>291</v>
       </c>
       <c r="M59">
         <v>53023</v>
@@ -3190,14 +3196,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>63</v>
       </c>
       <c r="K60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M60">
         <v>53023</v>
@@ -3234,14 +3240,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>63</v>
       </c>
       <c r="K61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="M61">
         <v>53023</v>
@@ -3278,14 +3284,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>62</v>
       </c>
       <c r="K62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="M62">
         <v>53025</v>
@@ -3322,14 +3328,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M63">
         <v>53025</v>
@@ -3366,14 +3372,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>7779</v>
       </c>
       <c r="M64">
         <v>53025</v>
@@ -3410,14 +3416,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>63</v>
       </c>
       <c r="K65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>484</v>
       </c>
       <c r="M65">
         <v>53025</v>
@@ -3454,14 +3460,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>63</v>
       </c>
       <c r="K66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="M66">
         <v>53025</v>
@@ -3498,14 +3504,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>62</v>
       </c>
       <c r="K67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="M67">
         <v>53027</v>
@@ -3542,14 +3548,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>62</v>
       </c>
       <c r="K68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="M68">
         <v>53027</v>
@@ -3586,14 +3592,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>63</v>
       </c>
       <c r="K69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>4599</v>
       </c>
       <c r="M69">
         <v>53027</v>
@@ -3630,14 +3636,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>63</v>
       </c>
       <c r="K70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="M70">
         <v>53027</v>
@@ -3674,14 +3680,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>63</v>
       </c>
       <c r="K71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="M71">
         <v>53027</v>
@@ -3718,14 +3724,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>62</v>
       </c>
       <c r="K72" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="M72">
         <v>53029</v>
@@ -3762,14 +3768,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>62</v>
       </c>
       <c r="K73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="M73">
         <v>53029</v>
@@ -3806,14 +3812,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>63</v>
       </c>
       <c r="K74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>6931</v>
       </c>
       <c r="M74">
         <v>53029</v>
@@ -3850,14 +3856,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>63</v>
       </c>
       <c r="K75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>1395</v>
       </c>
       <c r="M75">
         <v>53029</v>
@@ -3894,14 +3900,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>63</v>
       </c>
       <c r="K76" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>1461</v>
       </c>
       <c r="M76">
         <v>53029</v>
@@ -3938,14 +3944,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>62</v>
       </c>
       <c r="K77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="M77">
         <v>53031</v>
@@ -3982,14 +3988,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>62</v>
       </c>
       <c r="K78" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="M78">
         <v>53031</v>
@@ -4026,14 +4032,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>63</v>
       </c>
       <c r="K79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>2463</v>
       </c>
       <c r="M79">
         <v>53031</v>
@@ -4070,14 +4076,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>63</v>
       </c>
       <c r="K80" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="M80">
         <v>53031</v>
@@ -4114,14 +4120,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>63</v>
       </c>
       <c r="K81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="M81">
         <v>53031</v>
@@ -4158,14 +4164,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>62</v>
       </c>
       <c r="K82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>6705</v>
       </c>
       <c r="M82">
         <v>53033</v>
@@ -4202,14 +4208,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>62</v>
       </c>
       <c r="K83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>3247</v>
       </c>
       <c r="M83">
         <v>53033</v>
@@ -4246,14 +4252,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>63</v>
       </c>
       <c r="K84" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>64741</v>
       </c>
       <c r="M84">
         <v>53033</v>
@@ -4290,14 +4296,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>63</v>
       </c>
       <c r="K85" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>13975</v>
       </c>
       <c r="M85">
         <v>53033</v>
@@ -4334,14 +4340,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>63</v>
       </c>
       <c r="K86" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>8862</v>
       </c>
       <c r="M86">
         <v>53033</v>
@@ -4378,14 +4384,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>62</v>
       </c>
       <c r="K87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>632</v>
       </c>
       <c r="M87">
         <v>53035</v>
@@ -4422,14 +4428,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>62</v>
       </c>
       <c r="K88" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="M88">
         <v>53035</v>
@@ -4466,14 +4472,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>63</v>
       </c>
       <c r="K89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>16347</v>
       </c>
       <c r="M89">
         <v>53035</v>
@@ -4510,14 +4516,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>63</v>
       </c>
       <c r="K90" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>2396</v>
       </c>
       <c r="M90">
         <v>53035</v>
@@ -4554,14 +4560,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>63</v>
       </c>
       <c r="K91" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>2533</v>
       </c>
       <c r="M91">
         <v>53035</v>
@@ -4598,14 +4604,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>62</v>
       </c>
       <c r="K92" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="M92">
         <v>53037</v>
@@ -4642,14 +4648,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>62</v>
       </c>
       <c r="K93" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M93">
         <v>53037</v>
@@ -4686,14 +4692,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>63</v>
       </c>
       <c r="K94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3338</v>
       </c>
       <c r="M94">
         <v>53037</v>
@@ -4730,14 +4736,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>63</v>
       </c>
       <c r="K95" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="M95">
         <v>53037</v>
@@ -4774,14 +4780,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>63</v>
       </c>
       <c r="K96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="M96">
         <v>53037</v>
@@ -4818,14 +4824,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>62</v>
       </c>
       <c r="K97" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="M97">
         <v>53039</v>
@@ -4862,14 +4868,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>62</v>
       </c>
       <c r="K98" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M98">
         <v>53039</v>
@@ -4906,14 +4912,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>63</v>
       </c>
       <c r="K99" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>2290</v>
       </c>
       <c r="M99">
         <v>53039</v>
@@ -4950,14 +4956,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>63</v>
       </c>
       <c r="K100" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="M100">
         <v>53039</v>
@@ -4994,14 +5000,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>63</v>
       </c>
       <c r="K101" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>291</v>
       </c>
       <c r="M101">
         <v>53039</v>
@@ -5038,14 +5044,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>62</v>
       </c>
       <c r="K102" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="M102">
         <v>53041</v>
@@ -5082,14 +5088,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>62</v>
       </c>
       <c r="K103" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M103">
         <v>53041</v>
@@ -5126,14 +5132,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>63</v>
       </c>
       <c r="K104" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>8514</v>
       </c>
       <c r="M104">
         <v>53041</v>
@@ -5170,14 +5176,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>63</v>
       </c>
       <c r="K105" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>555</v>
       </c>
       <c r="M105">
         <v>53041</v>
@@ -5214,14 +5220,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>63</v>
       </c>
       <c r="K106" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>931</v>
       </c>
       <c r="M106">
         <v>53041</v>
@@ -5258,14 +5264,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>62</v>
       </c>
       <c r="K107" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M107">
         <v>53043</v>
@@ -5302,14 +5308,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>62</v>
       </c>
       <c r="K108" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M108">
         <v>53043</v>
@@ -5346,14 +5352,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>63</v>
       </c>
       <c r="K109" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>1472</v>
       </c>
       <c r="M109">
         <v>53043</v>
@@ -5390,14 +5396,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>63</v>
       </c>
       <c r="K110" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M110">
         <v>53043</v>
@@ -5434,14 +5440,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>63</v>
       </c>
       <c r="K111" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="M111">
         <v>53043</v>
@@ -5478,14 +5484,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>62</v>
       </c>
       <c r="K112" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="M112">
         <v>53045</v>
@@ -5522,14 +5528,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>62</v>
       </c>
       <c r="K113" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="M113">
         <v>53045</v>
@@ -5566,14 +5572,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>63</v>
       </c>
       <c r="K114" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>5492</v>
       </c>
       <c r="M114">
         <v>53045</v>
@@ -5610,14 +5616,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>63</v>
       </c>
       <c r="K115" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="M115">
         <v>53045</v>
@@ -5654,14 +5660,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>63</v>
       </c>
       <c r="K116" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>694</v>
       </c>
       <c r="M116">
         <v>53045</v>
@@ -5698,14 +5704,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>62</v>
       </c>
       <c r="K117" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="M117">
         <v>53047</v>
@@ -5742,14 +5748,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>62</v>
       </c>
       <c r="K118" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M118">
         <v>53047</v>
@@ -5786,14 +5792,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>63</v>
       </c>
       <c r="K119" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>2829</v>
       </c>
       <c r="M119">
         <v>53047</v>
@@ -5830,14 +5836,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>63</v>
       </c>
       <c r="K120" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="M120">
         <v>53047</v>
@@ -5874,14 +5880,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>63</v>
       </c>
       <c r="K121" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="M121">
         <v>53047</v>
@@ -5918,14 +5924,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>62</v>
       </c>
       <c r="K122" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="M122">
         <v>53049</v>
@@ -5962,14 +5968,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>62</v>
       </c>
       <c r="K123" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M123">
         <v>53049</v>
@@ -6006,14 +6012,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>63</v>
       </c>
       <c r="K124" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>2039</v>
       </c>
       <c r="M124">
         <v>53049</v>
@@ -6050,14 +6056,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>63</v>
       </c>
       <c r="K125" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="M125">
         <v>53049</v>
@@ -6094,14 +6100,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>63</v>
       </c>
       <c r="K126" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="M126">
         <v>53049</v>
@@ -6138,14 +6144,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>62</v>
       </c>
       <c r="K127" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M127">
         <v>53051</v>
@@ -6182,14 +6188,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>62</v>
       </c>
       <c r="K128" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M128">
         <v>53051</v>
@@ -6226,14 +6232,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>63</v>
       </c>
       <c r="K129" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>1929</v>
       </c>
       <c r="M129">
         <v>53051</v>
@@ -6270,14 +6276,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>63</v>
       </c>
       <c r="K130" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M130">
         <v>53051</v>
@@ -6314,14 +6320,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>63</v>
       </c>
       <c r="K131" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="M131">
         <v>53051</v>
@@ -6358,14 +6364,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>62</v>
       </c>
       <c r="K132" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>1969</v>
       </c>
       <c r="M132">
         <v>53053</v>
@@ -6402,14 +6408,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>62</v>
       </c>
       <c r="K133" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>713</v>
       </c>
       <c r="M133">
         <v>53053</v>
@@ -6446,14 +6452,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>63</v>
       </c>
       <c r="K134" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>48072</v>
       </c>
       <c r="M134">
         <v>53053</v>
@@ -6490,14 +6496,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>63</v>
       </c>
       <c r="K135" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>5894</v>
       </c>
       <c r="M135">
         <v>53053</v>
@@ -6534,14 +6540,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>63</v>
       </c>
       <c r="K136" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>6849</v>
       </c>
       <c r="M136">
         <v>53053</v>
@@ -6578,14 +6584,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>62</v>
       </c>
       <c r="K137" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="M137">
         <v>53055</v>
@@ -6622,14 +6628,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>62</v>
       </c>
       <c r="K138" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M138">
         <v>53055</v>
@@ -6666,14 +6672,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>63</v>
       </c>
       <c r="K139" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>960</v>
       </c>
       <c r="M139">
         <v>53055</v>
@@ -6710,14 +6716,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>63</v>
       </c>
       <c r="K140" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="M140">
         <v>53055</v>
@@ -6754,14 +6760,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>63</v>
       </c>
       <c r="K141" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="M141">
         <v>53055</v>
@@ -6798,14 +6804,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>62</v>
       </c>
       <c r="K142" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="M142">
         <v>53057</v>
@@ -6842,14 +6848,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>62</v>
       </c>
       <c r="K143" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="M143">
         <v>53057</v>
@@ -6886,14 +6892,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>63</v>
       </c>
       <c r="K144" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>7445</v>
       </c>
       <c r="M144">
         <v>53057</v>
@@ -6930,14 +6936,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>63</v>
       </c>
       <c r="K145" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>858</v>
       </c>
       <c r="M145">
         <v>53057</v>
@@ -6974,14 +6980,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>63</v>
       </c>
       <c r="K146" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>765</v>
       </c>
       <c r="M146">
         <v>53057</v>
@@ -7018,14 +7024,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>62</v>
       </c>
       <c r="K147" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M147">
         <v>53059</v>
@@ -7062,14 +7068,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>62</v>
       </c>
       <c r="K148" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M148">
         <v>53059</v>
@@ -7106,14 +7112,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>63</v>
       </c>
       <c r="K149" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>1079</v>
       </c>
       <c r="M149">
         <v>53059</v>
@@ -7150,14 +7156,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>63</v>
       </c>
       <c r="K150" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="M150">
         <v>53059</v>
@@ -7194,14 +7200,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>63</v>
       </c>
       <c r="K151" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="M151">
         <v>53059</v>
@@ -7238,14 +7244,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>62</v>
       </c>
       <c r="K152" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>2166</v>
       </c>
       <c r="M152">
         <v>53061</v>
@@ -7282,14 +7288,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>62</v>
       </c>
       <c r="K153" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>678</v>
       </c>
       <c r="M153">
         <v>53061</v>
@@ -7326,14 +7332,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>63</v>
       </c>
       <c r="K154" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>35475</v>
       </c>
       <c r="M154">
         <v>53061</v>
@@ -7370,14 +7376,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>63</v>
       </c>
       <c r="K155" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>4702</v>
       </c>
       <c r="M155">
         <v>53061</v>
@@ -7414,14 +7420,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>63</v>
       </c>
       <c r="K156" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>5098</v>
       </c>
       <c r="M156">
         <v>53061</v>
@@ -7458,14 +7464,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>62</v>
       </c>
       <c r="K157" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="M157">
         <v>53063</v>
@@ -7502,14 +7508,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>62</v>
       </c>
       <c r="K158" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>334</v>
       </c>
       <c r="M158">
         <v>53063</v>
@@ -7546,14 +7552,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>63</v>
       </c>
       <c r="K159" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>37358</v>
       </c>
       <c r="M159">
         <v>53063</v>
@@ -7590,14 +7596,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>63</v>
       </c>
       <c r="K160" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>4300</v>
       </c>
       <c r="M160">
         <v>53063</v>
@@ -7634,14 +7640,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>63</v>
       </c>
       <c r="K161" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>6033</v>
       </c>
       <c r="M161">
         <v>53063</v>
@@ -7678,14 +7684,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>62</v>
       </c>
       <c r="K162" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="M162">
         <v>53065</v>
@@ -7722,14 +7728,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>62</v>
       </c>
       <c r="K163" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M163">
         <v>53065</v>
@@ -7766,14 +7772,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>63</v>
       </c>
       <c r="K164" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>5076</v>
       </c>
       <c r="M164">
         <v>53065</v>
@@ -7810,14 +7816,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>63</v>
       </c>
       <c r="K165" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="M165">
         <v>53065</v>
@@ -7854,14 +7860,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>63</v>
       </c>
       <c r="K166" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>658</v>
       </c>
       <c r="M166">
         <v>53065</v>
@@ -7898,14 +7904,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>62</v>
       </c>
       <c r="K167" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>869</v>
       </c>
       <c r="M167">
         <v>53067</v>
@@ -7942,14 +7948,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>62</v>
       </c>
       <c r="K168" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="M168">
         <v>53067</v>
@@ -7986,14 +7992,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>63</v>
       </c>
       <c r="K169" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>16640</v>
       </c>
       <c r="M169">
         <v>53067</v>
@@ -8030,14 +8036,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>63</v>
       </c>
       <c r="K170" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>2399</v>
       </c>
       <c r="M170">
         <v>53067</v>
@@ -8074,14 +8080,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>63</v>
       </c>
       <c r="K171" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>2310</v>
       </c>
       <c r="M171">
         <v>53067</v>
@@ -8118,14 +8124,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>62</v>
       </c>
       <c r="K172" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M172">
         <v>53069</v>
@@ -8162,14 +8168,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
+      <c r="J173" t="s">
+        <v>62</v>
+      </c>
+      <c r="K173" t="s">
+        <v>64</v>
+      </c>
+      <c r="L173">
         <v>3</v>
-      </c>
-      <c r="K173" t="s">
-        <v>62</v>
-      </c>
-      <c r="L173">
-        <v>4</v>
       </c>
       <c r="M173">
         <v>53069</v>
@@ -8206,14 +8212,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>63</v>
       </c>
       <c r="K174" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>531</v>
       </c>
       <c r="M174">
         <v>53069</v>
@@ -8250,14 +8256,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>63</v>
       </c>
       <c r="K175" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M175">
         <v>53069</v>
@@ -8294,14 +8300,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>63</v>
       </c>
       <c r="K176" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="M176">
         <v>53069</v>
@@ -8338,14 +8344,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>62</v>
       </c>
       <c r="K177" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="M177">
         <v>53071</v>
@@ -8382,14 +8388,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>62</v>
       </c>
       <c r="K178" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M178">
         <v>53071</v>
@@ -8426,14 +8432,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>63</v>
       </c>
       <c r="K179" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>4690</v>
       </c>
       <c r="M179">
         <v>53071</v>
@@ -8470,14 +8476,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>63</v>
       </c>
       <c r="K180" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>564</v>
       </c>
       <c r="M180">
         <v>53071</v>
@@ -8514,14 +8520,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>63</v>
       </c>
       <c r="K181" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>493</v>
       </c>
       <c r="M181">
         <v>53071</v>
@@ -8558,14 +8564,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>62</v>
       </c>
       <c r="K182" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>696</v>
       </c>
       <c r="M182">
         <v>53073</v>
@@ -8602,14 +8608,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>62</v>
       </c>
       <c r="K183" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="M183">
         <v>53073</v>
@@ -8646,14 +8652,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>63</v>
       </c>
       <c r="K184" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>16534</v>
       </c>
       <c r="M184">
         <v>53073</v>
@@ -8690,14 +8696,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>63</v>
       </c>
       <c r="K185" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>1533</v>
       </c>
       <c r="M185">
         <v>53073</v>
@@ -8734,14 +8740,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>63</v>
       </c>
       <c r="K186" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>2961</v>
       </c>
       <c r="M186">
         <v>53073</v>
@@ -8778,14 +8784,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>62</v>
       </c>
       <c r="K187" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="M187">
         <v>53075</v>
@@ -8822,14 +8828,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>62</v>
       </c>
       <c r="K188" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M188">
         <v>53075</v>
@@ -8866,14 +8872,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>63</v>
       </c>
       <c r="K189" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>2072</v>
       </c>
       <c r="M189">
         <v>53075</v>
@@ -8910,14 +8916,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>63</v>
       </c>
       <c r="K190" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="M190">
         <v>53075</v>
@@ -8954,14 +8960,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>63</v>
       </c>
       <c r="K191" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>364</v>
       </c>
       <c r="M191">
         <v>53075</v>
@@ -8998,14 +9004,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>62</v>
       </c>
       <c r="K192" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>394</v>
       </c>
       <c r="M192">
         <v>53077</v>
@@ -9042,14 +9048,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>62</v>
       </c>
       <c r="K193" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="M193">
         <v>53077</v>
@@ -9086,14 +9092,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>63</v>
       </c>
       <c r="K194" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>14873</v>
       </c>
       <c r="M194">
         <v>53077</v>
@@ -9130,14 +9136,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>63</v>
       </c>
       <c r="K195" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>1064</v>
       </c>
       <c r="M195">
         <v>53077</v>
@@ -9174,14 +9180,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>63</v>
       </c>
       <c r="K196" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>1367</v>
       </c>
       <c r="M196">
         <v>53077</v>
